--- a/PU_MET_FAST_019/PU_MET_FAST_019.xlsx
+++ b/PU_MET_FAST_019/PU_MET_FAST_019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\GitHub\ML_neutronics\PU-MET-FAST-019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\GitHub\ML_neutronics\PU_MET_FAST_019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B4356F-A6EF-46FA-88B7-D4EBE4A874B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E859FAB2-E628-4FEA-BC0F-E487BE0A7E3D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12107" yWindow="2647" windowWidth="9600" windowHeight="4920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -605,74 +605,74 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -701,17 +701,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>11515</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>636693</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>168148</xdr:rowOff>
+      <xdr:rowOff>149860</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F33AC495-300E-4717-B4B3-AEFD9637520E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8B11B5F-022A-4EEA-9BE5-6FFBB92B82A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -728,7 +728,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9182100" y="0"/>
-          <a:ext cx="1298448" cy="1298448"/>
+          <a:ext cx="1280160" cy="1280160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -745,17 +745,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>11515</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>636693</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>185081</xdr:rowOff>
+      <xdr:rowOff>166793</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9F93ACD-50DB-4D79-9493-8BFD343F4908}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6E83583-9A94-4CAA-AE3F-565757072648}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -772,7 +772,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9182100" y="1312333"/>
-          <a:ext cx="1298448" cy="1298448"/>
+          <a:ext cx="1280160" cy="1280160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1049,8 +1049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1064,30 +1064,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="61"/>
-      <c r="G1" s="62" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="54"/>
+      <c r="G1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="63"/>
+      <c r="H1" s="56"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="64" t="s">
+      <c r="C2" s="58"/>
+      <c r="D2" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="65"/>
+      <c r="E2" s="58"/>
       <c r="G2" s="41" t="s">
         <v>34</v>
       </c>
@@ -1097,14 +1097,14 @@
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="66" t="s">
+      <c r="C3" s="60"/>
+      <c r="D3" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="67"/>
+      <c r="E3" s="60"/>
       <c r="G3" s="3" t="s">
         <v>8</v>
       </c>
@@ -1116,14 +1116,14 @@
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="52" t="s">
+      <c r="C4" s="51"/>
+      <c r="D4" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="53"/>
+      <c r="E4" s="51"/>
       <c r="G4" s="6" t="s">
         <v>12</v>
       </c>
@@ -1155,19 +1155,19 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="61" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="12">
-        <v>0.99587899999999996</v>
+        <v>0.99845399999999995</v>
       </c>
       <c r="C6" s="13">
-        <v>2.2399999999999998E-3</v>
-      </c>
-      <c r="D6" s="55">
+        <v>1.5900000000000001E-3</v>
+      </c>
+      <c r="D6" s="62">
         <v>1.0012000000000001</v>
       </c>
-      <c r="E6" s="57">
+      <c r="E6" s="64">
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="G6" s="31" t="s">
@@ -1178,15 +1178,15 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A7" s="54"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="14">
-        <v>0.99398399999999998</v>
+        <v>0.99682700000000002</v>
       </c>
       <c r="C7" s="15">
-        <v>2.2000000000000001E-3</v>
-      </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="57"/>
+        <v>1.5100000000000001E-3</v>
+      </c>
+      <c r="D7" s="62"/>
+      <c r="E7" s="64"/>
       <c r="G7" s="31" t="s">
         <v>19</v>
       </c>
@@ -1195,15 +1195,15 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A8" s="54"/>
+      <c r="A8" s="61"/>
       <c r="B8" s="14">
-        <v>2.1365300000000002E-3</v>
+        <v>2.1817199999999998E-3</v>
       </c>
       <c r="C8" s="15">
-        <v>5.3150000000000003E-2</v>
-      </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="57"/>
+        <v>3.9129999999999998E-2</v>
+      </c>
+      <c r="D8" s="62"/>
+      <c r="E8" s="64"/>
       <c r="G8" s="31" t="s">
         <v>20</v>
       </c>
@@ -1216,13 +1216,13 @@
         <v>21</v>
       </c>
       <c r="B9" s="14">
-        <v>0.99983599999999995</v>
+        <v>0.99949200000000005</v>
       </c>
       <c r="C9" s="15">
-        <v>1.3799999999999999E-3</v>
-      </c>
-      <c r="D9" s="55"/>
-      <c r="E9" s="57"/>
+        <v>9.8999999999999999E-4</v>
+      </c>
+      <c r="D9" s="62"/>
+      <c r="E9" s="64"/>
       <c r="G9" s="31" t="s">
         <v>37</v>
       </c>
@@ -1235,13 +1235,13 @@
         <v>22</v>
       </c>
       <c r="B10" s="14">
-        <v>1.0026900000000001</v>
+        <v>0.99899400000000005</v>
       </c>
       <c r="C10" s="15">
-        <v>1.5299999999999999E-3</v>
-      </c>
-      <c r="D10" s="55"/>
-      <c r="E10" s="57"/>
+        <v>1.09E-3</v>
+      </c>
+      <c r="D10" s="62"/>
+      <c r="E10" s="64"/>
       <c r="G10" s="31" t="s">
         <v>38</v>
       </c>
@@ -1254,13 +1254,13 @@
         <v>23</v>
       </c>
       <c r="B11" s="14">
-        <v>0.99983599999999995</v>
+        <v>0.99949200000000005</v>
       </c>
       <c r="C11" s="15">
-        <v>1.3799999999999999E-3</v>
-      </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="58"/>
+        <v>9.8999999999999999E-4</v>
+      </c>
+      <c r="D11" s="63"/>
+      <c r="E11" s="65"/>
       <c r="G11" s="32" t="s">
         <v>25</v>
       </c>
@@ -1273,10 +1273,10 @@
         <v>24</v>
       </c>
       <c r="B12" s="21">
-        <v>3.1591300000000002</v>
+        <v>3.1606800000000002</v>
       </c>
       <c r="C12" s="22">
-        <v>7.6000000000000004E-4</v>
+        <v>5.5999999999999995E-4</v>
       </c>
       <c r="G12" s="33" t="s">
         <v>27</v>
@@ -1286,7 +1286,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="66" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="21">
@@ -1301,7 +1301,7 @@
       <c r="H13" s="42"/>
     </row>
     <row r="14" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="45"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="21">
         <v>1</v>
       </c>
@@ -1316,7 +1316,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="46"/>
+      <c r="A15" s="67"/>
       <c r="B15" s="24">
         <v>1</v>
       </c>
@@ -1339,13 +1339,13 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="49"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="47"/>
       <c r="G17" s="10" t="s">
         <v>40</v>
       </c>
@@ -1357,14 +1357,14 @@
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="50" t="s">
+      <c r="C18" s="49"/>
+      <c r="D18" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="51"/>
+      <c r="E18" s="49"/>
       <c r="G18" s="10" t="s">
         <v>37</v>
       </c>
@@ -1376,14 +1376,14 @@
       <c r="A19" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="53"/>
-      <c r="D19" s="52" t="s">
+      <c r="C19" s="51"/>
+      <c r="D19" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="53"/>
+      <c r="E19" s="51"/>
       <c r="G19" s="26" t="s">
         <v>38</v>
       </c>
